--- a/BaseCore/doc/할일데이터_샘플.xlsx
+++ b/BaseCore/doc/할일데이터_샘플.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fishingday\git\BaseCore\BaseCore\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACA3C10-468F-40CE-80DE-FD2642F08959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A160AE88-297D-46B2-AF0E-01ACB7EE5613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{BBCC260D-3E6D-43FF-8358-03D8383B6560}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$2:$V$31</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="234">
   <si>
     <t>todo_seq</t>
   </si>
@@ -1204,10 +1207,6 @@
   </si>
   <si>
     <t>ENG_WORD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1296,7 +1295,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1310,9 +1309,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1342,8 +1338,8 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>372263</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>181763</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>153054</xdr:rowOff>
     </xdr:to>
@@ -1678,10 +1674,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CFBDFE-8D68-4ADF-9BE6-980CA87E455D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B3:U76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1691,7 +1690,7 @@
     <col min="3" max="3" width="12.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="23.75" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="68" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.75" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="2" customWidth="1"/>
@@ -1699,13 +1698,13 @@
     <col min="11" max="11" width="15" style="2" customWidth="1"/>
     <col min="12" max="12" width="10.875" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.25" style="2" customWidth="1"/>
-    <col min="16" max="16" width="15.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.25" style="2" customWidth="1"/>
+    <col min="15" max="15" width="1.625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="11.625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="10.75" style="2" customWidth="1"/>
+    <col min="19" max="19" width="8.875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="5.875" style="2" customWidth="1"/>
     <col min="21" max="21" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9.125" style="2"/>
   </cols>
@@ -1838,33 +1837,23 @@
       <c r="B5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="K5" s="3"/>
       <c r="L5" s="3" t="s">
         <v>108</v>
       </c>
@@ -1874,27 +1863,19 @@
       <c r="N5" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="O5" s="3"/>
       <c r="P5" s="3" t="s">
         <v>222</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="R5" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
       <c r="T5" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="U5" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="U5" s="3"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
@@ -1906,9 +1887,7 @@
       <c r="D6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
         <v>74</v>
       </c>
@@ -1921,42 +1900,28 @@
       <c r="I6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
       <c r="L6" s="3" t="s">
         <v>108</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
         <v>222</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="R6" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
       <c r="T6" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="U6" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="U6" s="3"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
@@ -1968,9 +1933,7 @@
       <c r="D7" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
         <v>74</v>
       </c>
@@ -1983,42 +1946,28 @@
       <c r="I7" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
         <v>79</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
         <v>222</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="R7" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
       <c r="T7" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="U7" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="U7" s="3"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
@@ -2030,9 +1979,7 @@
       <c r="D8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
         <v>74</v>
       </c>
@@ -2045,74 +1992,50 @@
       <c r="I8" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
       <c r="L8" s="3" t="s">
         <v>80</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
       <c r="P8" s="3" t="s">
         <v>222</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
       <c r="T8" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="U8" s="3"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="K9" s="3"/>
       <c r="L9" s="3" t="s">
         <v>78</v>
       </c>
@@ -2122,9 +2045,7 @@
       <c r="N9" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="O9" s="3"/>
       <c r="P9" s="3" t="s">
         <v>222</v>
       </c>
@@ -2154,9 +2075,7 @@
       <c r="D10" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>83</v>
       </c>
@@ -2169,24 +2088,16 @@
       <c r="I10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
         <v>78</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
       <c r="P10" s="3" t="s">
         <v>222</v>
       </c>
@@ -2216,9 +2127,7 @@
       <c r="D11" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
         <v>83</v>
       </c>
@@ -2231,24 +2140,16 @@
       <c r="I11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
       <c r="L11" s="3" t="s">
         <v>79</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="N11" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
       <c r="P11" s="3" t="s">
         <v>222</v>
       </c>
@@ -2272,9 +2173,7 @@
       <c r="B12" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
         <v>89</v>
       </c>
@@ -2290,15 +2189,11 @@
       <c r="H12" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="K12" s="3"/>
       <c r="L12" s="3" t="s">
         <v>79</v>
       </c>
@@ -2306,61 +2201,43 @@
         <v>70</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="O12" s="3" t="s">
         <v>232</v>
       </c>
+      <c r="O12" s="3"/>
       <c r="P12" s="3" t="s">
         <v>222</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
       <c r="T12" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="U12" s="3"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
         <v>79</v>
       </c>
@@ -2370,59 +2247,41 @@
       <c r="N13" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="O13" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="O13" s="3"/>
       <c r="P13" s="3" t="s">
         <v>222</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="R13" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
       <c r="T13" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="U13" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="U13" s="3"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="K14" s="3"/>
       <c r="L14" s="3" t="s">
         <v>79</v>
       </c>
@@ -2432,41 +2291,29 @@
       <c r="N14" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="O14" s="3"/>
       <c r="P14" s="3" t="s">
         <v>222</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
       <c r="T14" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="U14" s="3"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
         <v>101</v>
       </c>
@@ -2476,15 +2323,11 @@
       <c r="H15" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="K15" s="3"/>
       <c r="L15" s="3" t="s">
         <v>80</v>
       </c>
@@ -2494,41 +2337,29 @@
       <c r="N15" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="O15" s="3"/>
       <c r="P15" s="3" t="s">
         <v>222</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
       <c r="T15" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="U15" s="3"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
         <v>199</v>
       </c>
@@ -2538,15 +2369,11 @@
       <c r="H16" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="K16" s="3"/>
       <c r="L16" s="3" t="s">
         <v>80</v>
       </c>
@@ -2556,41 +2383,29 @@
       <c r="N16" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="O16" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="O16" s="3"/>
       <c r="P16" s="3" t="s">
         <v>222</v>
       </c>
       <c r="Q16" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="R16" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
       <c r="T16" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="U16" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="U16" s="3"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
         <v>100</v>
       </c>
@@ -2600,15 +2415,11 @@
       <c r="H17" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="K17" s="3"/>
       <c r="L17" s="3" t="s">
         <v>80</v>
       </c>
@@ -2618,53 +2429,37 @@
       <c r="N17" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="O17" s="3"/>
       <c r="P17" s="3" t="s">
         <v>222</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
       <c r="T17" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="U17" s="3"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
         <v>210</v>
       </c>
@@ -2680,53 +2475,37 @@
       <c r="N18" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="O18" s="3"/>
       <c r="P18" s="3" t="s">
         <v>222</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
       <c r="T18" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="U18" s="3"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="I19" s="3"/>
       <c r="J19" s="3" t="s">
         <v>210</v>
       </c>
@@ -2742,89 +2521,63 @@
       <c r="N19" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="O19" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="O19" s="3"/>
       <c r="P19" s="3" t="s">
         <v>222</v>
       </c>
       <c r="Q19" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="R19" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
       <c r="T19" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="U19" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="U19" s="3"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="G20" s="3"/>
       <c r="H20" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="K20" s="3"/>
       <c r="L20" s="3" t="s">
         <v>108</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="O20" s="3"/>
       <c r="P20" s="3" t="s">
         <v>222</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
       <c r="T20" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="U20" s="3"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
@@ -2836,9 +2589,7 @@
       <c r="D21" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
         <v>122</v>
       </c>
@@ -2851,42 +2602,28 @@
       <c r="I21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
       <c r="L21" s="3" t="s">
         <v>108</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>232</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
       <c r="P21" s="3" t="s">
         <v>222</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
       <c r="T21" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="U21" s="3"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
@@ -2898,9 +2635,7 @@
       <c r="D22" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
         <v>122</v>
       </c>
@@ -2913,42 +2648,28 @@
       <c r="I22" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
       <c r="L22" s="3" t="s">
         <v>79</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>232</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
       <c r="P22" s="3" t="s">
         <v>222</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
       <c r="T22" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="U22" s="3"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
@@ -2960,9 +2681,7 @@
       <c r="D23" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
         <v>122</v>
       </c>
@@ -2975,104 +2694,72 @@
       <c r="I23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
       <c r="L23" s="3" t="s">
         <v>80</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>232</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
       <c r="P23" s="3" t="s">
         <v>222</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
       <c r="T23" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="U23" s="3"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="G24" s="3"/>
       <c r="H24" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="I24" s="3"/>
       <c r="J24" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="K24" s="3"/>
       <c r="L24" s="3" t="s">
         <v>149</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="O24" s="3"/>
       <c r="P24" s="3" t="s">
         <v>222</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
       <c r="T24" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="U24" s="3"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
@@ -3084,9 +2771,7 @@
       <c r="D25" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
         <v>143</v>
       </c>
@@ -3099,42 +2784,28 @@
       <c r="I25" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
       <c r="L25" s="3" t="s">
         <v>149</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>232</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
       <c r="P25" s="3" t="s">
         <v>222</v>
       </c>
       <c r="Q25" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="R25" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
       <c r="T25" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="U25" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="U25" s="3"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
@@ -3146,9 +2817,7 @@
       <c r="D26" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
         <v>144</v>
       </c>
@@ -3161,42 +2830,28 @@
       <c r="I26" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
       <c r="L26" s="3" t="s">
         <v>150</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>232</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
       <c r="P26" s="3" t="s">
         <v>222</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
       <c r="T26" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="U26" s="3"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
@@ -3208,9 +2863,7 @@
       <c r="D27" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
         <v>145</v>
       </c>
@@ -3223,42 +2876,28 @@
       <c r="I27" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
       <c r="L27" s="3" t="s">
         <v>151</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>232</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
       <c r="P27" s="3" t="s">
         <v>222</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
       <c r="T27" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="U27" s="3"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
@@ -3270,9 +2909,7 @@
       <c r="D28" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
         <v>146</v>
       </c>
@@ -3285,42 +2922,28 @@
       <c r="I28" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J28" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
       <c r="L28" s="3" t="s">
         <v>152</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>232</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
       <c r="P28" s="3" t="s">
         <v>222</v>
       </c>
       <c r="Q28" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="R28" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
       <c r="T28" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="U28" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="U28" s="3"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
@@ -3332,9 +2955,7 @@
       <c r="D29" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
         <v>147</v>
       </c>
@@ -3347,42 +2968,28 @@
       <c r="I29" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
       <c r="L29" s="3" t="s">
         <v>153</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>232</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
       <c r="P29" s="3" t="s">
         <v>222</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
       <c r="T29" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="U29" s="3"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
@@ -3394,9 +3001,7 @@
       <c r="D30" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
         <v>148</v>
       </c>
@@ -3409,51 +3014,28 @@
       <c r="I30" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
       <c r="L30" s="3" t="s">
         <v>154</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>232</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
       <c r="P30" s="3" t="s">
         <v>222</v>
       </c>
       <c r="Q30" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="R30" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
       <c r="T30" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="U30" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B31" s="5"/>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B32" s="5"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="5"/>
+      <c r="U30" s="3"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
@@ -3743,8 +3325,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="40" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>